--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y496"/>
+  <dimension ref="A1:Y498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
       </c>
       <c r="R495" s="2" t="inlineStr"/>
     </row>
-    <row r="496">
+    <row r="496" ht="15" customHeight="1">
       <c r="A496" t="inlineStr">
         <is>
           <t>A 40616-2023</t>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29379,6 +29379,120 @@
         <v>0</v>
       </c>
       <c r="R496" s="2" t="inlineStr"/>
+    </row>
+    <row r="497" ht="15" customHeight="1">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>A 40994-2023</t>
+        </is>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C497" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N497" t="n">
+        <v>0</v>
+      </c>
+      <c r="O497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R497" s="2" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>A 41242-2023</t>
+        </is>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C498" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N498" t="n">
+        <v>0</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R498" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y498"/>
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
       </c>
       <c r="R497" s="2" t="inlineStr"/>
     </row>
-    <row r="498">
+    <row r="498" ht="15" customHeight="1">
       <c r="A498" t="inlineStr">
         <is>
           <t>A 41242-2023</t>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29493,6 +29493,120 @@
         <v>0</v>
       </c>
       <c r="R498" s="2" t="inlineStr"/>
+    </row>
+    <row r="499" ht="15" customHeight="1">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>A 41425-2023</t>
+        </is>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C499" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N499" t="n">
+        <v>0</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>A 41835-2023</t>
+        </is>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C500" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y500"/>
+  <dimension ref="A1:Y501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
       </c>
       <c r="R499" s="2" t="inlineStr"/>
     </row>
-    <row r="500">
+    <row r="500" ht="15" customHeight="1">
       <c r="A500" t="inlineStr">
         <is>
           <t>A 41835-2023</t>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29607,6 +29607,63 @@
         <v>0</v>
       </c>
       <c r="R500" s="2" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>A 42524-2023</t>
+        </is>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C501" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N501" t="n">
+        <v>0</v>
+      </c>
+      <c r="O501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R501" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y501"/>
+  <dimension ref="A1:Y504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 63310-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 63310-2018.xlsx", "A 63310-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 63310-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 63310-2018.png", "A 63310-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 63310-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 63310-2018.docx", "A 63310-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 63310-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 63310-2018.docx", "A 63310-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 63310-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 63310-2018.docx", "A 63310-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 63310-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 63310-2018.docx", "A 63310-2018")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 63320-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 63320-2018.xlsx", "A 63320-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 63320-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 63320-2018.png", "A 63320-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 63320-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 63320-2018.docx", "A 63320-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 63320-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 63320-2018.docx", "A 63320-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 63320-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 63320-2018.docx", "A 63320-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 63320-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 63320-2018.docx", "A 63320-2018")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -796,27 +796,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 68552-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 68552-2020.xlsx", "A 68552-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 68552-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 68552-2020.png", "A 68552-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 68552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 68552-2020.docx", "A 68552-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 68552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 68552-2020.docx", "A 68552-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 68552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 68552-2020.docx", "A 68552-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 68552-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 68552-2020.docx", "A 68552-2020")</f>
         <v/>
       </c>
     </row>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,27 +882,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 30862-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 30862-2021.xlsx", "A 30862-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 30862-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 30862-2021.png", "A 30862-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 30862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 30862-2021.docx", "A 30862-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 30862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 30862-2021.docx", "A 30862-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 30862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 30862-2021.docx", "A 30862-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 30862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 30862-2021.docx", "A 30862-2021")</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,27 +973,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 4720-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 4720-2022.xlsx", "A 4720-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 4720-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 4720-2022.png", "A 4720-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 4720-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 4720-2022.docx", "A 4720-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 4720-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 4720-2022.docx", "A 4720-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 4720-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 4720-2022.docx", "A 4720-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 4720-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 4720-2022.docx", "A 4720-2022")</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1058,27 +1058,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 61238-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 61238-2019.xlsx", "A 61238-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 61238-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 61238-2019.png", "A 61238-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 61238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 61238-2019.docx", "A 61238-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 61238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 61238-2019.docx", "A 61238-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 61238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 61238-2019.docx", "A 61238-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 61238-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 61238-2019.docx", "A 61238-2019")</f>
         <v/>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,27 +1143,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 62200-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 62200-2020.xlsx", "A 62200-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 62200-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 62200-2020.png", "A 62200-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 62200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 62200-2020.docx", "A 62200-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 62200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 62200-2020.docx", "A 62200-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 62200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 62200-2020.docx", "A 62200-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 62200-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 62200-2020.docx", "A 62200-2020")</f>
         <v/>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1228,27 +1228,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 44540-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 44540-2021.xlsx", "A 44540-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 44540-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 44540-2021.png", "A 44540-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 44540-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 44540-2021.docx", "A 44540-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 44540-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 44540-2021.docx", "A 44540-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 44540-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 44540-2021.docx", "A 44540-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 44540-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 44540-2021.docx", "A 44540-2021")</f>
         <v/>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,27 +1313,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 50998-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 50998-2021.xlsx", "A 50998-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 50998-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 50998-2021.png", "A 50998-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 50998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 50998-2021.docx", "A 50998-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 50998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 50998-2021.docx", "A 50998-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 50998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 50998-2021.docx", "A 50998-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 50998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 50998-2021.docx", "A 50998-2021")</f>
         <v/>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1398,27 +1398,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 66137-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 66137-2021.xlsx", "A 66137-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 66137-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 66137-2021.png", "A 66137-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 66137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 66137-2021.docx", "A 66137-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 66137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 66137-2021.docx", "A 66137-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 66137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 66137-2021.docx", "A 66137-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 66137-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 66137-2021.docx", "A 66137-2021")</f>
         <v/>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1483,27 +1483,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 3062-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/artfynd/A 3062-2023.xlsx", "A 3062-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 3062-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/kartor/A 3062-2023.png", "A 3062-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 3062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomål/A 3062-2023.docx", "A 3062-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 3062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/klagomålsmail/A 3062-2023.docx", "A 3062-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 3062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsyn/A 3062-2023.docx", "A 3062-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 3062-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKENBERG/tillsynsmail/A 3062-2023.docx", "A 3062-2023")</f>
         <v/>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
       </c>
       <c r="R500" s="2" t="inlineStr"/>
     </row>
-    <row r="501">
+    <row r="501" ht="15" customHeight="1">
       <c r="A501" t="inlineStr">
         <is>
           <t>A 42524-2023</t>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29664,6 +29664,177 @@
         <v>0</v>
       </c>
       <c r="R501" s="2" t="inlineStr"/>
+    </row>
+    <row r="502" ht="15" customHeight="1">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>A 43581-2023</t>
+        </is>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C502" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N502" t="n">
+        <v>0</v>
+      </c>
+      <c r="O502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R502" s="2" t="inlineStr"/>
+    </row>
+    <row r="503" ht="15" customHeight="1">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>A 43610-2023</t>
+        </is>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C503" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N503" t="n">
+        <v>0</v>
+      </c>
+      <c r="O503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R503" s="2" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>A 43576-2023</t>
+        </is>
+      </c>
+      <c r="B504" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C504" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N504" t="n">
+        <v>0</v>
+      </c>
+      <c r="O504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R504" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y504"/>
+  <dimension ref="A1:Y511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
       </c>
       <c r="R503" s="2" t="inlineStr"/>
     </row>
-    <row r="504">
+    <row r="504" ht="15" customHeight="1">
       <c r="A504" t="inlineStr">
         <is>
           <t>A 43576-2023</t>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29835,6 +29835,405 @@
         <v>0</v>
       </c>
       <c r="R504" s="2" t="inlineStr"/>
+    </row>
+    <row r="505" ht="15" customHeight="1">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>A 43883-2023</t>
+        </is>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C505" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N505" t="n">
+        <v>0</v>
+      </c>
+      <c r="O505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R505" s="2" t="inlineStr"/>
+    </row>
+    <row r="506" ht="15" customHeight="1">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>A 43897-2023</t>
+        </is>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C506" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N506" t="n">
+        <v>0</v>
+      </c>
+      <c r="O506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R506" s="2" t="inlineStr"/>
+    </row>
+    <row r="507" ht="15" customHeight="1">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>A 44040-2023</t>
+        </is>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C507" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>1</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N507" t="n">
+        <v>0</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R507" s="2" t="inlineStr"/>
+    </row>
+    <row r="508" ht="15" customHeight="1">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>A 44086-2023</t>
+        </is>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C508" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N508" t="n">
+        <v>0</v>
+      </c>
+      <c r="O508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R508" s="2" t="inlineStr"/>
+    </row>
+    <row r="509" ht="15" customHeight="1">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>A 44133-2023</t>
+        </is>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C509" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N509" t="n">
+        <v>0</v>
+      </c>
+      <c r="O509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R509" s="2" t="inlineStr"/>
+    </row>
+    <row r="510" ht="15" customHeight="1">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>A 44090-2023</t>
+        </is>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C510" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N510" t="n">
+        <v>0</v>
+      </c>
+      <c r="O510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R510" s="2" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>A 44087-2023</t>
+        </is>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C511" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N511" t="n">
+        <v>0</v>
+      </c>
+      <c r="O511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R511" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30010,14 +30010,14 @@
     <row r="508" ht="15" customHeight="1">
       <c r="A508" t="inlineStr">
         <is>
-          <t>A 44086-2023</t>
+          <t>A 44090-2023</t>
         </is>
       </c>
       <c r="B508" s="1" t="n">
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         </is>
       </c>
       <c r="G508" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H508" t="n">
         <v>0</v>
@@ -30067,14 +30067,14 @@
     <row r="509" ht="15" customHeight="1">
       <c r="A509" t="inlineStr">
         <is>
-          <t>A 44133-2023</t>
+          <t>A 44087-2023</t>
         </is>
       </c>
       <c r="B509" s="1" t="n">
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="G509" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -30124,14 +30124,14 @@
     <row r="510" ht="15" customHeight="1">
       <c r="A510" t="inlineStr">
         <is>
-          <t>A 44090-2023</t>
+          <t>A 44086-2023</t>
         </is>
       </c>
       <c r="B510" s="1" t="n">
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H510" t="n">
         <v>0</v>
@@ -30181,14 +30181,14 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>A 44087-2023</t>
+          <t>A 44133-2023</t>
         </is>
       </c>
       <c r="B511" s="1" t="n">
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         </is>
       </c>
       <c r="G511" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H511" t="n">
         <v>0</v>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y511"/>
+  <dimension ref="A1:Y514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
       </c>
       <c r="R510" s="2" t="inlineStr"/>
     </row>
-    <row r="511">
+    <row r="511" ht="15" customHeight="1">
       <c r="A511" t="inlineStr">
         <is>
           <t>A 44133-2023</t>
@@ -30188,7 +30188,7 @@
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30234,6 +30234,182 @@
         <v>0</v>
       </c>
       <c r="R511" s="2" t="inlineStr"/>
+    </row>
+    <row r="512" ht="15" customHeight="1">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>A 45829-2023</t>
+        </is>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C512" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N512" t="n">
+        <v>0</v>
+      </c>
+      <c r="O512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R512" s="2" t="inlineStr"/>
+    </row>
+    <row r="513" ht="15" customHeight="1">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>A 46059-2023</t>
+        </is>
+      </c>
+      <c r="B513" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C513" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0</v>
+      </c>
+      <c r="K513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N513" t="n">
+        <v>0</v>
+      </c>
+      <c r="O513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R513" s="2" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>A 46924-2023</t>
+        </is>
+      </c>
+      <c r="B514" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C514" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>4</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N514" t="n">
+        <v>0</v>
+      </c>
+      <c r="O514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R514" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y514"/>
+  <dimension ref="A1:Y517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>45195</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45196</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
       </c>
       <c r="R513" s="2" t="inlineStr"/>
     </row>
-    <row r="514">
+    <row r="514" ht="15" customHeight="1">
       <c r="A514" t="inlineStr">
         <is>
           <t>A 46924-2023</t>
@@ -30359,7 +30359,7 @@
         <v>45201</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30410,6 +30410,177 @@
         <v>0</v>
       </c>
       <c r="R514" s="2" t="inlineStr"/>
+    </row>
+    <row r="515" ht="15" customHeight="1">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>A 47422-2023</t>
+        </is>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C515" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>1</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0</v>
+      </c>
+      <c r="K515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N515" t="n">
+        <v>0</v>
+      </c>
+      <c r="O515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R515" s="2" t="inlineStr"/>
+    </row>
+    <row r="516" ht="15" customHeight="1">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>A 47423-2023</t>
+        </is>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C516" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N516" t="n">
+        <v>0</v>
+      </c>
+      <c r="O516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R516" s="2" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>A 47412-2023</t>
+        </is>
+      </c>
+      <c r="B517" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C517" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0</v>
+      </c>
+      <c r="K517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N517" t="n">
+        <v>0</v>
+      </c>
+      <c r="O517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R517" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y517"/>
+  <dimension ref="A1:Y518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>45195</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45196</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45201</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>45202</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45202</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
       </c>
       <c r="R516" s="2" t="inlineStr"/>
     </row>
-    <row r="517">
+    <row r="517" ht="15" customHeight="1">
       <c r="A517" t="inlineStr">
         <is>
           <t>A 47412-2023</t>
@@ -30535,7 +30535,7 @@
         <v>45202</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30581,6 +30581,63 @@
         <v>0</v>
       </c>
       <c r="R517" s="2" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>A 47589-2023</t>
+        </is>
+      </c>
+      <c r="B518" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C518" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N518" t="n">
+        <v>0</v>
+      </c>
+      <c r="O518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R518" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>45195</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45196</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45201</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>45202</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45202</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>45202</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>45203</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y518"/>
+  <dimension ref="A1:Y519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45188</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>45188</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>45188</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>45188</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30188,7 +30188,7 @@
         <v>45188</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30245,7 +30245,7 @@
         <v>45195</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30302,7 +30302,7 @@
         <v>45196</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30359,7 +30359,7 @@
         <v>45201</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>45202</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45202</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>45202</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
       </c>
       <c r="R517" s="2" t="inlineStr"/>
     </row>
-    <row r="518">
+    <row r="518" ht="15" customHeight="1">
       <c r="A518" t="inlineStr">
         <is>
           <t>A 47589-2023</t>
@@ -30592,7 +30592,7 @@
         <v>45203</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30638,6 +30638,63 @@
         <v>0</v>
       </c>
       <c r="R518" s="2" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>A 48120-2023</t>
+        </is>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C519" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>FALKENBERG</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>3</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
+      <c r="K519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N519" t="n">
+        <v>0</v>
+      </c>
+      <c r="O519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R519" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALKENBERG.xlsx
+++ b/Översikt FALKENBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43427</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43427</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>44186</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44592</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43783</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>44159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>44460</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>44517</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>44946</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>43346</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>43347</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43388</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>43398</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>43418</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>43418</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         <v>43422</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>43422</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>43423</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43423</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43430</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>43431</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>43431</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43433</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43436</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43436</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43437</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43452</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43455</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43479</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43479</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43485</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43487</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>43495</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>43502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>43504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>43516</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>43524</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>43530</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>43533</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>43536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>43549</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>43550</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>43558</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43558</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43559</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>43563</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>43579</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43588</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43588</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43591</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43591</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43595</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43608</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43612</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43619</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43619</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43619</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43627</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43628</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43634</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43635</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43635</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43635</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>43648</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>43648</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>43654</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>43656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>43656</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>43657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43658</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43665</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43665</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>43665</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>43668</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43668</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43669</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43689</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43692</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43705</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43710</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43710</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43710</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>43732</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>43732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>43752</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>43752</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>43754</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>43754</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>43755</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>43755</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>43755</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>43761</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43762</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43762</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43768</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>43768</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43773</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43773</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43773</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43773</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43775</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43775</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43783</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43789</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43805</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>43805</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43822</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>43829</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43829</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>43829</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>43838</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>43843</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43844</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>43845</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>43845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43859</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>43859</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>43859</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>43859</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43860</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43878</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43881</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>43902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>43906</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>43914</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43914</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43915</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43916</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43917</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43921</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43930</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43937</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43942</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43945</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43955</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43955</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43978</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43978</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43978</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43980</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43986</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44005</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44008</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44008</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44015</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44018</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44026</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44046</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44070</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44071</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>44077</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44083</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44091</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>44091</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44091</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44091</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>44096</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>44098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>44109</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44109</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         <v>44109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
         <v>44113</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44117</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44119</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44126</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44126</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44132</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>44133</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>44134</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44137</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44141</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>44145</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>44145</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>44146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44146</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>44151</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44159</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44161</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>44166</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>44168</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>44176</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>44176</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44186</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44187</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44187</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44187</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44187</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44204</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44209</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44211</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44217</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44217</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44217</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44223</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44224</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>44224</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44224</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44224</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44224</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44228</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44230</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>44230</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>44230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>44237</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44237</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44237</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>44246</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44250</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44252</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44257</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44258</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44266</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44267</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44267</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44272</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44278</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44287</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44287</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44301</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44313</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44314</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44320</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44327</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44343</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44357</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44377</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44379</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>44381</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>44381</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44400</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44400</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44424</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44424</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44425</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44430</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44431</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44431</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>44435</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44448</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44454</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44461</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44466</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44466</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44467</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44469</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44469</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44481</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44489</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44521</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44524</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44537</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44538</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44539</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44539</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44539</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44539</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44539</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44539</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44543</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44544</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44553</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44554</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44592</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44593</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>44600</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44602</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44614</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44623</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44651</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44652</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44656</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44664</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44680</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44680</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>44680</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44687</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>44687</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44689</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44691</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44692</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44692</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44692</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44694</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         <v>44727</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44740</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44747</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44763</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44776</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44806</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44813</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44818</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>44827</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44827</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44836</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44846</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44852</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44866</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44866</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44867</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>44871</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>44873</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44880</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44881</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44881</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44882</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44887</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44893</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44900</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44908</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44910</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>44910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>44910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44938</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44938</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44938</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>44946</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44946</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44946</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44946</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44946</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44957</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>44958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>44958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>44966</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>44970</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44972</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44974</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44974</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44974</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44977</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44981</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44984</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>44986</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44986</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44986</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>44986</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44986</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44995</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44999</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45001</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45001</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45001</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45001</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45002</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45008</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45013</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45015</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45016</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>45019</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45029</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>45035</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45035</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>45035</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45035</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>45035</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45035</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>45040</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45044</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>45044</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>45044</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45044</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45044</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45049</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>45049</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45049</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45050</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>45055</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>45055</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>45058</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>45058</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>45058</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>45059</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45068</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27437,7 +27437,7 @@
         <v>45068</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45068</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45071</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45076</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45077</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45079</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>45079</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>45079</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45086</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45089</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45091</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45113</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>45117</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>45117</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45119</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45127</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45127</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45131</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45131</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45139</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45142</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45146</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45147</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45149</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45152</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45153</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>45161</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>45173</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>45174</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45175</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45176</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45181</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45184</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45184</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45184</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>45187</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45187</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
